--- a/3_experts_res/SEED_IV/result.xlsx
+++ b/3_experts_res/SEED_IV/result.xlsx
@@ -563,7 +563,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6312</v>
+        <v>0.6808999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -585,7 +585,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6724</v>
+        <v>0.7379</v>
       </c>
     </row>
     <row r="15">
@@ -673,7 +673,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5854</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="23">
@@ -772,7 +772,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7114</v>
+        <v>0.7195</v>
       </c>
     </row>
     <row r="32">
@@ -838,7 +838,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>0.626</v>
+        <v>0.7033</v>
       </c>
     </row>
     <row r="38">
@@ -904,7 +904,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4715</v>
+        <v>0.5569</v>
       </c>
     </row>
     <row r="44">
@@ -937,7 +937,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6911</v>
+        <v>0.8333</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED_IV/result.xlsx
+++ b/3_experts_res/SEED_IV/result.xlsx
@@ -508,7 +508,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8089</v>
+        <v>0.8659</v>
       </c>
     </row>
     <row r="8">
@@ -618,7 +618,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7586000000000001</v>
+        <v>0.7828000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -629,7 +629,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8262</v>
+        <v>0.9043</v>
       </c>
     </row>
     <row r="19">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8172</v>
+        <v>0.9034</v>
       </c>
     </row>
     <row r="21">
@@ -684,7 +684,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8483000000000001</v>
+        <v>0.8931</v>
       </c>
     </row>
     <row r="24">
@@ -750,7 +750,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7413999999999999</v>
+        <v>0.9034</v>
       </c>
     </row>
     <row r="30">
@@ -860,7 +860,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7837</v>
+        <v>0.8652</v>
       </c>
     </row>
     <row r="40">
@@ -882,7 +882,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>0.769</v>
+        <v>0.7759</v>
       </c>
     </row>
     <row r="42">
@@ -915,7 +915,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7276</v>
+        <v>0.7862</v>
       </c>
     </row>
     <row r="45">

--- a/3_experts_res/SEED_IV/result.xlsx
+++ b/3_experts_res/SEED_IV/result.xlsx
@@ -772,7 +772,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7195</v>
+        <v>0.7358</v>
       </c>
     </row>
     <row r="32">

--- a/3_experts_res/SEED_IV/result.xlsx
+++ b/3_experts_res/SEED_IV/result.xlsx
@@ -618,7 +618,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7828000000000001</v>
+        <v>0.8276</v>
       </c>
     </row>
     <row r="18">

--- a/3_experts_res/SEED_IV/result.xlsx
+++ b/3_experts_res/SEED_IV/result.xlsx
@@ -475,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7846</v>
+        <v>0.8008</v>
       </c>
     </row>
     <row r="5">
@@ -541,7 +541,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8415</v>
+        <v>0.8902</v>
       </c>
     </row>
     <row r="11">
@@ -574,7 +574,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.878</v>
+        <v>0.9959</v>
       </c>
     </row>
     <row r="14">
@@ -618,7 +618,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8276</v>
+        <v>0.8517</v>
       </c>
     </row>
     <row r="18">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -684,7 +684,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8931</v>
+        <v>0.9759</v>
       </c>
     </row>
     <row r="24">
@@ -706,7 +706,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9228</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -794,7 +794,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8475</v>
+        <v>0.8652</v>
       </c>
     </row>
     <row r="34">
@@ -827,7 +827,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>0.656</v>
+        <v>0.6915</v>
       </c>
     </row>
     <row r="37">
@@ -871,7 +871,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6382</v>
+        <v>0.7561</v>
       </c>
     </row>
     <row r="41">
@@ -882,7 +882,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8207</v>
+        <v>0.9137999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5569</v>
+        <v>0.6301</v>
       </c>
     </row>
     <row r="44">
